--- a/doe_parameters_combined.xlsx
+++ b/doe_parameters_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogt\OneDrive - Inter-American Development Bank Group\ESWs\2018\unburnable_oil\LHS_unburnable_oil_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{39A6FE9F-1A5D-4508-BFFD-6873ACB183D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{EBDB6BD6-ADAE-47B0-845F-BA1EED1F334A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E55B1C-67C7-4165-BC13-02934469629B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7968" activeTab="2" xr2:uid="{3BCD42AA-9DD5-4B5B-856A-6806A91F5349}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>demand</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>1groupSEP</t>
+  </si>
+  <si>
+    <t>2groupSEP</t>
+  </si>
+  <si>
+    <t>3groupSEP</t>
+  </si>
+  <si>
+    <t>4groupSEP</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,40 +576,40 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
